--- a/ResultadoEleicoesDistritos/SANTARÉM_TOMAR.xlsx
+++ b/ResultadoEleicoesDistritos/SANTARÉM_TOMAR.xlsx
@@ -597,64 +597,64 @@
         <v>10003</v>
       </c>
       <c r="H2" t="n">
-        <v>381</v>
+        <v>399</v>
       </c>
       <c r="I2" t="n">
-        <v>965</v>
+        <v>1042</v>
       </c>
       <c r="J2" t="n">
-        <v>4152</v>
+        <v>4139</v>
       </c>
       <c r="K2" t="n">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="L2" t="n">
-        <v>1134</v>
+        <v>1137</v>
       </c>
       <c r="M2" t="n">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="N2" t="n">
-        <v>723</v>
+        <v>698</v>
       </c>
       <c r="O2" t="n">
         <v>4</v>
       </c>
       <c r="P2" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="Q2" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="R2" t="n">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="S2" t="n">
-        <v>444</v>
+        <v>414</v>
       </c>
       <c r="T2" t="n">
-        <v>774</v>
+        <v>711</v>
       </c>
       <c r="U2" t="n">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="V2" t="n">
-        <v>6537</v>
+        <v>6351</v>
       </c>
       <c r="W2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="X2" t="n">
-        <v>6193</v>
+        <v>6478</v>
       </c>
       <c r="Y2" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="Z2" t="n">
-        <v>107</v>
+        <v>79</v>
       </c>
       <c r="AA2" t="n">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
